--- a/variable/Modèle-audit-SEO.xlsx
+++ b/variable/Modèle-audit-SEO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\Youssef-p4\variable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5988545-DC36-489E-8870-8467A5714B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="12345" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Catégorie</t>
   </si>
@@ -40,24 +46,9 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>le titre</t>
-  </si>
-  <si>
-    <t>non compatible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoir un titre convenable  </t>
-  </si>
-  <si>
     <t>changer le titre dans la balise title</t>
   </si>
   <si>
-    <t xml:space="preserve">la description </t>
-  </si>
-  <si>
-    <t>il y a aucune description</t>
-  </si>
-  <si>
     <t xml:space="preserve">avoir une description convenable </t>
   </si>
   <si>
@@ -67,12 +58,6 @@
     <t xml:space="preserve">SEO et accessiblité </t>
   </si>
   <si>
-    <t>non responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le site ne peux pas apparaitre avec toutes les machines </t>
-  </si>
-  <si>
     <t>le rendre responsive</t>
   </si>
   <si>
@@ -82,125 +67,206 @@
     <t>accessiblité</t>
   </si>
   <si>
-    <t xml:space="preserve">certains paragraphe n'apparaissent pas </t>
-  </si>
-  <si>
-    <t>certains paragraphe n'apparaissent pas</t>
-  </si>
-  <si>
     <t>les faire apparaitre</t>
   </si>
   <si>
     <t>modifier leur couleur et leurs tailles</t>
   </si>
   <si>
-    <t>meta keywords</t>
-  </si>
-  <si>
-    <t>tentative de tromperie de l'algorithme</t>
-  </si>
-  <si>
     <t xml:space="preserve">avoir des keywords plus convenable </t>
   </si>
   <si>
     <t xml:space="preserve">rechercher de nouveau keywords et supprimer les ancien </t>
   </si>
   <si>
-    <t>la taille du texte</t>
-  </si>
-  <si>
-    <t>certains texte son trop petit</t>
-  </si>
-  <si>
     <t>modifier la taille du texte</t>
   </si>
   <si>
     <t xml:space="preserve">agrandir la taille ets textes pour mieu les lires </t>
   </si>
   <si>
-    <t xml:space="preserve"> trop de scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le site est trop long pour rien se qui dépens des credit </t>
-  </si>
-  <si>
     <t xml:space="preserve">économiser les scroll </t>
   </si>
   <si>
     <t xml:space="preserve">rétrécir certaine balise en longueur </t>
   </si>
   <si>
-    <t xml:space="preserve">certains paragrphe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">certains paragrphe du site son des images </t>
-  </si>
-  <si>
     <t>les changer en &lt;p&gt;</t>
   </si>
   <si>
     <t>supprimer la balise img et la ranplacer par un p</t>
   </si>
   <si>
-    <t>le contraste est mauvais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">certains contraste nee son pas visible pour tous le monde </t>
-  </si>
-  <si>
     <t>les modifier pour les rendre AAA</t>
   </si>
   <si>
     <t xml:space="preserve">utiliser un analyseur de contraste des couleur pour les modifier </t>
   </si>
   <si>
-    <t>n'est pas disponible en englais</t>
-  </si>
-  <si>
-    <t>les sites n'est pas disponible en anglais</t>
-  </si>
-  <si>
     <t xml:space="preserve">avoir une traduction pour dans une langue mondial </t>
   </si>
   <si>
     <t>ajouter une balise lang fr et link rel="alter" herlang"en" href="lien"</t>
   </si>
   <si>
-    <t>les alt des img son pas bonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la description des img n'est  pas addapter </t>
-  </si>
-  <si>
     <t xml:space="preserve">avoir une description plus precise </t>
   </si>
   <si>
     <t xml:space="preserve">decrire dans la balise alt l'img que ne voit pas les utilisateur </t>
   </si>
   <si>
-    <t>la structure n'est pas bonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la rédaction des titre </t>
-  </si>
-  <si>
     <t>avoir des titre et des sous titre plus structurer</t>
   </si>
   <si>
     <t xml:space="preserve">le nombre de titres du niveau inférieur doit être au moins égal à 2 </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940765-quel-est-limpact-du-design-inclusif</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055206-diagnostiquez-la-crawlabilite-de-votre-site-avec-la-search-console</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>https://www.referenseo.com/guide-seo/balises-h1-h2-h3/</t>
+  </si>
+  <si>
+    <t>accessiblité et seo</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title    https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578338-reconnaissez-les-differents-types-de-mots-cles  https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks   https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578339-effectuez-votre-premiere-recherche-de-mots-cles</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-hreflang/</t>
+  </si>
+  <si>
+    <t>A la ligne 22 dans la balise title le titre étais ","  cela vas posé probleme au moment de trouver le site si il n'est vpas changé</t>
+  </si>
+  <si>
+    <t>le site ne peux pas apparaitre avec toutes les machines, sur petit ecran les section son couper ou trop petit car une taille defini leurs ait donné</t>
+  </si>
+  <si>
+    <t>il y a aucune description c'est un problemé car c'est la description qui va avoir un impact c'est la premier chose que vois un visiteur(ligne5)</t>
+  </si>
+  <si>
+    <t>certains paragraphe n'apparaissent pas a la page contacte (ligne67)</t>
+  </si>
+  <si>
+    <t>beaucoup de textes sont trop petits sa pourrais posé probleme aux personne qui aurait des difficulé visuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le site est trop long pour rien se qui dépens des credit si on ne change pas on pourrais pourrais avoir un score trop élevé pour rien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">certains paragrphe du site son des images se qui alourdit le site ce dernier un a impact sur sa vitesse </t>
+  </si>
+  <si>
+    <t>le contraste entre la color et le background sont mal determiné certains personne qui ont des difficulté ne pourrons pas ou mal voir les articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les sites n'est pas disponible en anglais le traduire en anglais pourrais le rendre beaucoup plus attractif </t>
+  </si>
+  <si>
+    <t>la description des img n'est pas addapter, elle sont trop vagues et donne peut d'information certains personne se guide avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la rédaction des titre n'est pas bonne certains titre n'ont pas de sous titre se qui donne a une mauvaise archive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans la section footer il y a des BLACKHAT </t>
+  </si>
+  <si>
+    <t>il y beaucoup trop de liens dans la section footer l'agoritme pourrais le percevoir comme un tentative de blackhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il n'y a aucun description </t>
+  </si>
+  <si>
+    <t>le site n'etais pas responsive</t>
+  </si>
+  <si>
+    <t>certains paragraphe n'apparaissent pas a cause des contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la meta keywords est innaproprié </t>
+  </si>
+  <si>
+    <t>les textes sont illisible a cause de leurs police trop petit</t>
+  </si>
+  <si>
+    <t>le scroll et beaucoup trop exploité pour rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certains paragrphe son des image au lieu de texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le contraste est mauvais et n'apparait pas pour tous le monde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le site n'a de langue secondaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">les alt des img son pas bonne pour decrire les images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">la structure des titre n'est pas bonne </t>
+  </si>
+  <si>
+    <t>il y a une tentative de tromperie de l'algorithme BLACKHAT</t>
+  </si>
+  <si>
+    <t>il y a beaucoup de tentative se blackhat caché dans le site</t>
+  </si>
+  <si>
+    <t>avoir un titre convenable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le mieux serrais de les supprimer et d'en trouvez de nouveau sans en donné beaucoup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans la sturcture du site il y a beaucoup de balise disimuler sur fond de couleur l'agorithme </t>
+  </si>
+  <si>
+    <t>le mieux serrais de les supprimer</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/referencement-naturel-black-hat-seo/#:~:text=La%20technique%20consiste%20simplement%20%C3%A0,un%20lien%20vers%20son%20site.&amp;text=Commenter%20juste%20pour%20obtenir%20un,comme%20une%20technique%20Black%20Hat.</t>
+  </si>
+  <si>
+    <t>ne plus esseyé de trompé google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne pas avoir de texte dissimuler pour etre mieux classé </t>
+  </si>
+  <si>
+    <t>https://www.redacteur.com/blog/seo-techniques-black-hat/</t>
+  </si>
+  <si>
+    <t>le titre n'est pas compatible ce n'est qu'un ","</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,158 +299,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,194 +319,8 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -592,253 +328,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,62 +343,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9"/>
-    <cellStyle name="Virgule" xfId="2" builtinId="3"/>
-    <cellStyle name="60 % - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
-    <cellStyle name="Titre" xfId="5" builtinId="15"/>
-    <cellStyle name="Monétaire [0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Monétaire" xfId="7" builtinId="4"/>
-    <cellStyle name="Milliers [0]" xfId="8" builtinId="6"/>
-    <cellStyle name="Cellule liée" xfId="9" builtinId="24"/>
-    <cellStyle name="Pourcentage" xfId="10" builtinId="5"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
-    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
-    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
-    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
-    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
-    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
-    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
-    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
-    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
-    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
-    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1099,30 +555,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2814814814815" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.2814814814815" customWidth="1"/>
-    <col min="2" max="2" width="32.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="44.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="39.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="48.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.2814814814815" customWidth="1"/>
-    <col min="7" max="26" width="10.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="3" max="3" width="110.77734375" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="5" max="5" width="48.77734375" customWidth="1"/>
+    <col min="6" max="6" width="200.21875" customWidth="1"/>
+    <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,220 +618,292 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:5">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="5:5">
-      <c r="E15" s="4"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2361,8 +1889,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title" xr:uid="{BE1DD50C-84C4-4304-ADB9-0E12280F8F2D}"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578338-reconnaissez-les-differents-types-de-mots-cles" xr:uid="{615F6321-2F41-49F2-97E7-F4AE95D30E58}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{8E0B6DD0-5F57-45BE-8226-044427BB6052}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{1A167991-3435-499E-B550-B26650459FB7}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{DFCAAB1C-71E2-4E6A-856B-CDEB3B730C3E}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{EB492A25-1E58-406C-B8E3-CBD2000AF320}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{DCE07F12-EE2B-41E2-B2CF-B2BA50706A87}"/>
+    <hyperlink ref="F7" r:id="rId8" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578339-effectuez-votre-premiere-recherche-de-mots-cles" xr:uid="{0C979427-C6B2-486F-9DDD-404933ECA404}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{838864B6-7BDD-4F5A-A828-E5B2074E2BA9}"/>
+    <hyperlink ref="F10" r:id="rId10" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages" xr:uid="{0DD0EA59-1C6B-4526-AB83-B9DCF8B8758B}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{925AC01E-1735-4E49-B5E2-A97261AAD7F6}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{46A21335-AC8D-4872-8CFE-16FAC589871F}"/>
+    <hyperlink ref="F15" r:id="rId13" location=":~:text=La%20technique%20consiste%20simplement%20%C3%A0,un%20lien%20vers%20son%20site.&amp;text=Commenter%20juste%20pour%20obtenir%20un,comme%20une%20technique%20Black%20Hat." xr:uid="{6441AF26-ADC3-44DD-B1D1-C64557664719}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{35EB1BCC-648F-4E08-A9B5-6FD7241A5370}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>